--- a/biology/Médecine/1246_en_santé_et_médecine/1246_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1246_en_santé_et_médecine/1246_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1246_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1246_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1246 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1246_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1246_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le synode de Béziers rappelle que le droit canonique interdit rigoureusement aux chrétiens de se faire soigner par un médecin juif, prohibition qui reste généralement ignorée[2].
-Par un acte qui peut être tenu pour fondateur de l'université de Sienne, l'athénée municipal de cette ville, où la médecine est déjà enseignée, reçoit de Frédéric II « une forme limitée de reconnaissance impériale[3] ».
-Le roi Louis IX, à la demande de son frère Charles Ier, comte d'Anjou, fonde l'université d'Angers[4], dont la faculté de médecine ne sera créée qu'en 1432-1433, par le pape Eugène IV et le roi Charles VII[5].
-Fondation à Lyon, quartier Saint-Georges, par Guichard de Condrieu d'un hôpital Saint-Antoine qui aura disparu en 1280[6].
-Robert de Montpellier, apothicaire d'Henri III, serait le premier à ouvrir une pharmacie à Cheapside, grand marché de Londres[7].
-Malgré l'interdiction faite aux ordres majeurs d'exercer la chirurgie, renouvelée en 1234 par Grégoire IX, le pape Innocent IV autorise Richard de Fournival (1201-1260) devenu diacre à continuer de pratiquer cet art[8].
-1213-vers 1246 : « courte existence » de l'hôpital Novellus de Toulouse[9].
-1246[10] ou 1248[11] : fondation de l'hôpital Notre-Dame de Seclin, par Marguerite, comtesse de Flandre, sœur de Jeanne de Constantinople.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le synode de Béziers rappelle que le droit canonique interdit rigoureusement aux chrétiens de se faire soigner par un médecin juif, prohibition qui reste généralement ignorée.
+Par un acte qui peut être tenu pour fondateur de l'université de Sienne, l'athénée municipal de cette ville, où la médecine est déjà enseignée, reçoit de Frédéric II « une forme limitée de reconnaissance impériale ».
+Le roi Louis IX, à la demande de son frère Charles Ier, comte d'Anjou, fonde l'université d'Angers, dont la faculté de médecine ne sera créée qu'en 1432-1433, par le pape Eugène IV et le roi Charles VII.
+Fondation à Lyon, quartier Saint-Georges, par Guichard de Condrieu d'un hôpital Saint-Antoine qui aura disparu en 1280.
+Robert de Montpellier, apothicaire d'Henri III, serait le premier à ouvrir une pharmacie à Cheapside, grand marché de Londres.
+Malgré l'interdiction faite aux ordres majeurs d'exercer la chirurgie, renouvelée en 1234 par Grégoire IX, le pape Innocent IV autorise Richard de Fournival (1201-1260) devenu diacre à continuer de pratiquer cet art.
+1213-vers 1246 : « courte existence » de l'hôpital Novellus de Toulouse.
+1246 ou 1248 : fondation de l'hôpital Notre-Dame de Seclin, par Marguerite, comtesse de Flandre, sœur de Jeanne de Constantinople.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1246_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1246_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1245 ou 1246 : parution des Vies de médecins de l'historien Ibn Abi Usaybi'a, compilation de plus de quatre cents biographies de savants, rédigée en 1242[12],[13]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1245 ou 1246 : parution des Vies de médecins de l'historien Ibn Abi Usaybi'a, compilation de plus de quatre cents biographies de savants, rédigée en 1242,
 </t>
         </is>
       </c>
